--- a/biology/Botanique/Bois_de_Saint-Cucufa/Bois_de_Saint-Cucufa.xlsx
+++ b/biology/Botanique/Bois_de_Saint-Cucufa/Bois_de_Saint-Cucufa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bois de Saint-Cucufa, ou forêt de La Malmaison, est un bois et un étang dans le département des Hauts-de-Seine en France. C'est une forêt domaniale, gérée par l'Office national des forêts.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Rueil-Malmaison, à l’ouest de Paris, dans la forêt domaniale de la Malmaison, le bois de Saint-Cucufa avec son étang est la propriété de l’État depuis 1871[2]. Il s'agit de l’ancien bois Béranger (Nemus ou Boscus Berengerii) indiqué en 1239 dans le Cartulaire blanc de Saint-Denis (chapitre de Rueil). À la fin du XIIe siècle, les bénédictins y construisent une chapelle, aujourd’hui disparue, dédiée à saint Cucufa. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Rueil-Malmaison, à l’ouest de Paris, dans la forêt domaniale de la Malmaison, le bois de Saint-Cucufa avec son étang est la propriété de l’État depuis 1871. Il s'agit de l’ancien bois Béranger (Nemus ou Boscus Berengerii) indiqué en 1239 dans le Cartulaire blanc de Saint-Denis (chapitre de Rueil). À la fin du XIIe siècle, les bénédictins y construisent une chapelle, aujourd’hui disparue, dédiée à saint Cucufa. 
 En 1688, un mémoire descriptif de la châtellenie de Rueil (copie XVIIIe siècle, Archives départementales des Yvelines), citait les « bois taillis dits les Bois-Bérangers » peu après l’« étang de Saint-Cucufas », mentionnant aussi, à propos du revenu des herbes des Bois-Bérangers, « l’étang des bois et les fossés et clôtures du château ruiné dit de Saint-Cucuphas situé au milieu du bois ». Le bois Bérenger porte encore son ancien nom, au XVIIIe siècle, sur la carte des chasses du roi.
 En avril 1799, Joséphine Bonaparte acquiert la propriété, l’étang et les bois jusqu’au pavillon du Butard. Près de l’étang, elle crée une vacherie et une laiterie. Malgré leur divorce, Napoléon Ier lui laisse le château de Malmaison et les bois environnants de Saint-Cucufa. C'est d'ailleurs en se promenant le long de ce lac, un soir de grand froid et vêtue très légèrement, qu'elle contracta la pneumonie qui l'emporta. Puis, le domaine passe de mains en mains au gré des successions et ventes à des promoteurs-spéculateurs. Napoléon III qui reconstitue patiemment les propriétés chères à Napoléon Ier, reprend possession de la Malmaison et de Saint-Cucufa par un échange de terrains en novembre 1856.
 Le bois garde des traces de canonnades des batailles de Buzenval contre les Prussiens durant le Siège de Paris, notamment aux alentours de son parcours santé, en amont de la porte de Longboyau et à portée de tir de la forteresse du Mont-Valérien.
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de Saint-Cucufa est aujourd'hui un lieu privilégié de promenades pour les habitants des alentours. On y vient en famille pour faire du vélo, du jogging, ou encore pour se distraire dans la nature autour de l'étang. La forêt de la Malmaison s’étend sur 201 hectares, dont 197 sont situés à Rueil-Malmaison. Elle compte plus d'une vingtaine d'essences forestières (arbres). On y trouve :
 un étang de 2 ha ;
@@ -586,7 +602,9 @@
           <t>Art</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étang de Saint-Cucufa a intéressé le peintre Pierre Dumont (1884-1936) qui lui a consacré une série de toiles. Maurice de Vlaminck a peint Étang de Saint-Cucufa en 1903, toile présentée au Salon d'automne de 1905.
 Saint-Cucufa est cité dans la chanson de Boris Vian Le Cinématographe, où le père du narrateur plante des choux.
